--- a/Python/resultados/HW_C004_120.xlsx
+++ b/Python/resultados/HW_C004_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.140625</v>
+        <v>28.14831412551632</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>32.00783095981504</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.171875</v>
+        <v>28.17582990041445</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>32.00407098640462</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.140625</v>
+        <v>28.14630907499341</v>
       </c>
       <c r="C4" t="n">
-        <v>31.984375</v>
+        <v>31.98288122727036</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.171875</v>
+        <v>28.17615359975862</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>31.99521133937942</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.140625</v>
+        <v>28.14228431408</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>32.00669437791561</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.171875</v>
+        <v>28.1680602177563</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>31.99506299410173</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.140625</v>
+        <v>28.13431104779405</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>31.9942229253822</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.171875</v>
+        <v>28.179304142819</v>
       </c>
       <c r="C9" t="n">
-        <v>32.03125</v>
+        <v>32.02090212853717</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.140625</v>
+        <v>28.14596985904567</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>31.99631358989834</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.15625</v>
+        <v>28.15756218701392</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>32.01440363120401</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.15625</v>
+        <v>28.15740984691917</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>32.00175941599085</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.734375</v>
+        <v>19.73663709246449</v>
       </c>
       <c r="C2" t="n">
-        <v>28.203125</v>
+        <v>28.19739168520677</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.75</v>
+        <v>19.74590591466697</v>
       </c>
       <c r="C3" t="n">
-        <v>28.15625</v>
+        <v>28.16038141469579</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.71875</v>
+        <v>19.72406475909929</v>
       </c>
       <c r="C4" t="n">
-        <v>28.1875</v>
+        <v>28.17981654004977</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.734375</v>
+        <v>19.7342947930997</v>
       </c>
       <c r="C5" t="n">
-        <v>28.203125</v>
+        <v>28.19722143090895</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.734375</v>
+        <v>19.73707839671882</v>
       </c>
       <c r="C6" t="n">
-        <v>28.21875</v>
+        <v>28.21612073027638</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.71875</v>
+        <v>19.72321557666565</v>
       </c>
       <c r="C7" t="n">
-        <v>28.203125</v>
+        <v>28.19538709867766</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.71875</v>
+        <v>19.7242950717169</v>
       </c>
       <c r="C8" t="n">
-        <v>28.15625</v>
+        <v>28.14952634643689</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.734375</v>
+        <v>19.72696965719014</v>
       </c>
       <c r="C9" t="n">
-        <v>28.203125</v>
+        <v>28.19752476382892</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.75</v>
+        <v>19.7555086104301</v>
       </c>
       <c r="C10" t="n">
-        <v>28.15625</v>
+        <v>28.15540357701828</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.734375</v>
+        <v>19.72903330885448</v>
       </c>
       <c r="C11" t="n">
-        <v>28.1875</v>
+        <v>28.1870011822918</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.734375</v>
+        <v>19.73370031809065</v>
       </c>
       <c r="C12" t="n">
-        <v>28.1875</v>
+        <v>28.18357747693912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.79923245620952</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.82713847222473</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.77207231694878</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.75585075138698</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.79356339517782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.814737510389</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.78096264128927</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.73016049150681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.78524789378636</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.74093934865797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.80269253962885</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.80419239632943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.78237387061192</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.75517713698452</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.78012286733481</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.76867646203501</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.78993193812749</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.78079214318532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.78698971978823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.83954541972987</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.78731896389031</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.78172101324297</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C004_120.xlsx
+++ b/Python/resultados/HW_C004_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28.14831412551632</v>
+        <v>28.10792215963118</v>
       </c>
       <c r="C2" t="n">
-        <v>32.00783095981504</v>
+        <v>32.05345581224955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.17582990041445</v>
+        <v>28.11777440470371</v>
       </c>
       <c r="C3" t="n">
-        <v>32.00407098640462</v>
+        <v>32.09127818402621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.14630907499341</v>
+        <v>28.14381941230749</v>
       </c>
       <c r="C4" t="n">
-        <v>31.98288122727036</v>
+        <v>32.05462947410271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.17615359975862</v>
+        <v>28.12480693753092</v>
       </c>
       <c r="C5" t="n">
-        <v>31.99521133937942</v>
+        <v>32.0301315161954</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.14228431408</v>
+        <v>28.17516414984882</v>
       </c>
       <c r="C6" t="n">
-        <v>32.00669437791561</v>
+        <v>32.07160624309774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.1680602177563</v>
+        <v>28.1531843665557</v>
       </c>
       <c r="C7" t="n">
-        <v>31.99506299410173</v>
+        <v>32.05443232977905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28.13431104779405</v>
+        <v>28.14640895792944</v>
       </c>
       <c r="C8" t="n">
-        <v>31.9942229253822</v>
+        <v>32.05030447396103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.179304142819</v>
+        <v>28.15550935647234</v>
       </c>
       <c r="C9" t="n">
-        <v>32.02090212853717</v>
+        <v>32.05121752348959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.14596985904567</v>
+        <v>28.11680450606006</v>
       </c>
       <c r="C10" t="n">
-        <v>31.99631358989834</v>
+        <v>32.04951812926105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.15756218701392</v>
+        <v>28.15215382069112</v>
       </c>
       <c r="C11" t="n">
-        <v>32.01440363120401</v>
+        <v>32.06297356399036</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.15740984691917</v>
+        <v>28.13935480717308</v>
       </c>
       <c r="C12" t="n">
-        <v>32.00175941599085</v>
+        <v>32.05695472501527</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.73663709246449</v>
+        <v>19.728898764027</v>
       </c>
       <c r="C2" t="n">
-        <v>28.19739168520677</v>
+        <v>28.15347852832511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.74590591466697</v>
+        <v>19.70595960837813</v>
       </c>
       <c r="C3" t="n">
-        <v>28.16038141469579</v>
+        <v>28.13703451901332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.72406475909929</v>
+        <v>19.72178555133004</v>
       </c>
       <c r="C4" t="n">
-        <v>28.17981654004977</v>
+        <v>28.13403374384782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.7342947930997</v>
+        <v>19.72064166612591</v>
       </c>
       <c r="C5" t="n">
-        <v>28.19722143090895</v>
+        <v>28.16424832429117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.73707839671882</v>
+        <v>19.71297852672667</v>
       </c>
       <c r="C6" t="n">
-        <v>28.21612073027638</v>
+        <v>28.14152745576934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.72321557666565</v>
+        <v>19.74178674772681</v>
       </c>
       <c r="C7" t="n">
-        <v>28.19538709867766</v>
+        <v>28.16674317199548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7242950717169</v>
+        <v>19.73285418503712</v>
       </c>
       <c r="C8" t="n">
-        <v>28.14952634643689</v>
+        <v>28.13663119091968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.72696965719014</v>
+        <v>19.72752058853814</v>
       </c>
       <c r="C9" t="n">
-        <v>28.19752476382892</v>
+        <v>28.15672244995626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7555086104301</v>
+        <v>19.72224611023843</v>
       </c>
       <c r="C10" t="n">
-        <v>28.15540357701828</v>
+        <v>28.13562197306298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.72903330885448</v>
+        <v>19.69238771847423</v>
       </c>
       <c r="C11" t="n">
-        <v>28.1870011822918</v>
+        <v>28.10207817607494</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.73370031809065</v>
+        <v>19.72070594666025</v>
       </c>
       <c r="C12" t="n">
-        <v>28.18357747693912</v>
+        <v>28.14281195332561</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.79923245620952</v>
+        <v>14.70040253248522</v>
       </c>
       <c r="C2" t="n">
-        <v>23.82713847222473</v>
+        <v>23.69408789450418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.77207231694878</v>
+        <v>14.67537168995946</v>
       </c>
       <c r="C3" t="n">
-        <v>23.75585075138698</v>
+        <v>23.67196706121245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.79356339517782</v>
+        <v>14.69562797425608</v>
       </c>
       <c r="C4" t="n">
-        <v>23.814737510389</v>
+        <v>23.67607795289606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.78096264128927</v>
+        <v>14.67355480684625</v>
       </c>
       <c r="C5" t="n">
-        <v>23.73016049150681</v>
+        <v>23.65305598500715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.78524789378636</v>
+        <v>14.70840102243224</v>
       </c>
       <c r="C6" t="n">
-        <v>23.74093934865797</v>
+        <v>23.73993404927279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.80269253962885</v>
+        <v>14.67130193969093</v>
       </c>
       <c r="C7" t="n">
-        <v>23.80419239632943</v>
+        <v>23.71905555324877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.78237387061192</v>
+        <v>14.66907123849355</v>
       </c>
       <c r="C8" t="n">
-        <v>23.75517713698452</v>
+        <v>23.62678657864157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.78012286733481</v>
+        <v>14.67519272858435</v>
       </c>
       <c r="C9" t="n">
-        <v>23.76867646203501</v>
+        <v>23.67257957510466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.78993193812749</v>
+        <v>14.68538070810352</v>
       </c>
       <c r="C10" t="n">
-        <v>23.78079214318532</v>
+        <v>23.7121140070005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.78698971978823</v>
+        <v>14.68009263299783</v>
       </c>
       <c r="C11" t="n">
-        <v>23.83954541972987</v>
+        <v>23.69412438775136</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.78731896389031</v>
+        <v>14.68343972738494</v>
       </c>
       <c r="C12" t="n">
-        <v>23.78172101324297</v>
+        <v>23.68597830446395</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C004_120.xlsx
+++ b/Python/resultados/HW_C004_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>32.05345581224955</v>
       </c>
+      <c r="D2" t="n">
+        <v>31.76528672272455</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>32.09127818402621</v>
       </c>
+      <c r="D3" t="n">
+        <v>31.78556319134916</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>32.05462947410271</v>
       </c>
+      <c r="D4" t="n">
+        <v>31.76565399005397</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>32.0301315161954</v>
       </c>
+      <c r="D5" t="n">
+        <v>31.75379211307312</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>32.07160624309774</v>
       </c>
+      <c r="D6" t="n">
+        <v>31.77517655860976</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>32.05443232977905</v>
       </c>
+      <c r="D7" t="n">
+        <v>31.74109017152884</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>32.05030447396103</v>
       </c>
+      <c r="D8" t="n">
+        <v>31.77235153516929</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>32.05121752348959</v>
       </c>
+      <c r="D9" t="n">
+        <v>31.76860141470566</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>32.04951812926105</v>
       </c>
+      <c r="D10" t="n">
+        <v>31.75406300672088</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>32.06297356399036</v>
       </c>
+      <c r="D11" t="n">
+        <v>31.74276884501221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>32.05695472501527</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.76243475489474</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>28.15347852832511</v>
       </c>
+      <c r="D2" t="n">
+        <v>27.08624481420919</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>28.13703451901332</v>
       </c>
+      <c r="D3" t="n">
+        <v>27.10394760195453</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>28.13403374384782</v>
       </c>
+      <c r="D4" t="n">
+        <v>27.05832995544236</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>28.16424832429117</v>
       </c>
+      <c r="D5" t="n">
+        <v>27.08713332244577</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>28.14152745576934</v>
       </c>
+      <c r="D6" t="n">
+        <v>27.08039163018092</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>28.16674317199548</v>
       </c>
+      <c r="D7" t="n">
+        <v>27.09288550936295</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>28.13663119091968</v>
       </c>
+      <c r="D8" t="n">
+        <v>27.07299070618096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>28.15672244995626</v>
       </c>
+      <c r="D9" t="n">
+        <v>27.07293064718144</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>28.13562197306298</v>
       </c>
+      <c r="D10" t="n">
+        <v>27.08732976810781</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>28.10207817607494</v>
       </c>
+      <c r="D11" t="n">
+        <v>27.03225101006257</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>28.14281195332561</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.07744349651285</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>23.69408789450418</v>
       </c>
+      <c r="D2" t="n">
+        <v>22.41941499020276</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>23.67196706121245</v>
       </c>
+      <c r="D3" t="n">
+        <v>22.42462580133787</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>23.67607795289606</v>
       </c>
+      <c r="D4" t="n">
+        <v>22.40056152968618</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>23.65305598500715</v>
       </c>
+      <c r="D5" t="n">
+        <v>22.41664976767504</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>23.73993404927279</v>
       </c>
+      <c r="D6" t="n">
+        <v>22.46707636027751</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>23.71905555324877</v>
       </c>
+      <c r="D7" t="n">
+        <v>22.46482555290106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>23.62678657864157</v>
       </c>
+      <c r="D8" t="n">
+        <v>22.37173025450315</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>23.67257957510466</v>
       </c>
+      <c r="D9" t="n">
+        <v>22.41646191964223</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>23.7121140070005</v>
       </c>
+      <c r="D10" t="n">
+        <v>22.47481551046128</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>23.69412438775136</v>
       </c>
+      <c r="D11" t="n">
+        <v>22.44822683878434</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>23.68597830446395</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.43043885254714</v>
       </c>
     </row>
   </sheetData>
